--- a/ReportTest.xlsx
+++ b/ReportTest.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Pick List" r:id="rId3" sheetId="1"/>
+    <sheet name="Shortage List" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="30">
   <si>
     <t>Part Number</t>
   </si>
@@ -20,13 +21,88 @@
     <t>Qty In Stock</t>
   </si>
   <si>
-    <t>16 x 210A FORMULATED 6-22-16</t>
+    <t>10 x 220B FORMULATED 6-22-16</t>
   </si>
   <si>
     <t>Total Qty Needed</t>
   </si>
   <si>
     <t>Quantity To Be Pulled</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">WORK ORDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECT DESCRIPTION   </t>
+  </si>
+  <si>
+    <t>BASIC THERMAL BONDER</t>
+  </si>
+  <si>
+    <t>DOCUMENT#2220</t>
+  </si>
+  <si>
+    <t>BEAHMDESIGNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL #  </t>
+  </si>
+  <si>
+    <t>220-B</t>
+  </si>
+  <si>
+    <t>REVISION D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PART #   </t>
+  </si>
+  <si>
+    <t>REV DATE 062608</t>
+  </si>
+  <si>
+    <t>220B</t>
+  </si>
+  <si>
+    <t>PART#</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>QTY PER</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>BD PO#</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>SUPPLIER PART#</t>
+  </si>
+  <si>
+    <t>MFG PART #</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>MFG</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>UNIT COST</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -34,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="94">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -47,8 +123,454 @@
       <sz val="18.0"/>
       <b val="true"/>
     </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color rgb="FFFF0000"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color rgb="FFFF0000"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="12"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color rgb="FFFF0000"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="11"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="10"/>
+      <main:name val="Arial"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:sz val="9"/>
+      <main:name val="Arial"/>
+      <main:family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,8 +590,23 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:patternFill patternType="none"/>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="0" tint="-0.249977111117893"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="0" tint="-0.14999847407452621"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -95,23 +632,259 @@
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:left style="medium">
+        <main:color indexed="64"/>
+      </main:left>
+      <main:right/>
+      <main:top style="medium">
+        <main:color indexed="64"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:left/>
+      <main:right/>
+      <main:top style="medium">
+        <main:color indexed="64"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:left/>
+      <main:right/>
+      <main:top/>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:left style="medium">
+        <main:color indexed="64"/>
+      </main:left>
+      <main:right/>
+      <main:top/>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:left style="medium">
+        <main:color indexed="64"/>
+      </main:left>
+      <main:right/>
+      <main:top/>
+      <main:bottom style="medium">
+        <main:color indexed="64"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:left/>
+      <main:right/>
+      <main:top/>
+      <main:bottom style="medium">
+        <main:color indexed="64"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:left/>
+      <main:right/>
+      <main:top style="thin">
+        <main:color indexed="64"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+      <main:left style="thin">
+        <main:color indexed="64"/>
+      </main:left>
+      <main:right style="thin">
+        <main:color indexed="64"/>
+      </main:right>
+      <main:top style="thin">
+        <main:color indexed="64"/>
+      </main:top>
+      <main:bottom style="thin">
+        <main:color indexed="64"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="8" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="9" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="6" fillId="5" fontId="11" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="5" fontId="12" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="13" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="14" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="15" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="16" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="17" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="18" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="19" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="8" fillId="5" fontId="20" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="21" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="22" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="23" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="24" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="25" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="26" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="27" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="28" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="29" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="30" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="31" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="32" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="33" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="34" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="35" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="36" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="37" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="9" fillId="5" fontId="38" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="10" fillId="5" fontId="39" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="10" fillId="5" fontId="40" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="10" fillId="5" fontId="41" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="10" fillId="5" fontId="42" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="10" fillId="5" fontId="43" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="10" fillId="5" fontId="44" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="10" fillId="5" fontId="45" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="10" fillId="5" fontId="46" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="10" fillId="5" fontId="47" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="10" fillId="5" fontId="48" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyNumberFormat="true" borderId="7" fillId="5" fontId="49" numFmtId="14" xfId="0" applyFill="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="50" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="51" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="52" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="53" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="54" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="55" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="56" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="6" fontId="57" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="6" fontId="58" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="59" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="60" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="61" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="62" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="63" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="64" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="65" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyNumberFormat="true" borderId="7" fillId="5" fontId="66" numFmtId="14" xfId="0" applyFill="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="67" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="68" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="6" fontId="69" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="6" fontId="70" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="71" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="72" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="73" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="74" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="75" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" borderId="7" fillId="5" fontId="76" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="77" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyNumberFormat="true" borderId="7" fillId="5" fontId="78" numFmtId="14" xfId="0" applyFill="true" applyFont="true">
+      <main:alignment horizontal="left"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" borderId="7" fillId="5" fontId="79" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="80" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="81" numFmtId="0" xfId="0" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="82" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="83" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="84" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="85" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="86" numFmtId="0" xfId="0" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="87" numFmtId="0" xfId="0" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="88" numFmtId="0" xfId="0" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="89" numFmtId="0" xfId="0" applyNumberFormat="true"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="90" numFmtId="0" xfId="0" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="91" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="7" fontId="92" numFmtId="0" xfId="0" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="5" fontId="93" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -122,7 +895,7 @@
   <cols>
     <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.78515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="50.38671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.22265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.07421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="34.26953125" customWidth="true" bestFit="true"/>
   </cols>
@@ -146,342 +919,818 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>5200.0</v>
+        <v>5003.0</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>183.0</v>
+        <v>20.0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>5202.0</v>
+        <v>5006.0</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>177.0</v>
+        <v>11.0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>5312.0</v>
+        <v>5009.0</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>131.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>32.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>5316.0</v>
+        <v>5014.0</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>44.0</v>
+        <v>5.0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>5317.0</v>
+        <v>5018.0</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>5322.0</v>
+        <v>5019.0</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>112.0</v>
+        <v>11.0</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>5333.0</v>
+        <v>5021.0</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>5334.0</v>
+        <v>5022.0</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>153.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>5349.0</v>
+        <v>5028.0</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>5352.0</v>
+        <v>5029.0</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>6244.0</v>
+        <v>5067.0</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>105.0</v>
+        <v>14.0</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>6245.0</v>
+        <v>5071.0</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>70.0</v>
+        <v>140.0</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>6306.0</v>
+        <v>5200.0</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>223.0</v>
+        <v>183.0</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>6307.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>117.0</v>
+        <v>233.0</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>6308.0</v>
+        <v>5302.0</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>43.0</v>
+        <v>131.0</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>6466.0</v>
+        <v>5303.0</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>74.0</v>
+        <v>51.0</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>48.0</v>
+        <v>10.0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>48.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>48.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>6571.0</v>
+        <v>5304.0</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>48.0</v>
+        <v>0.0</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>6573.0</v>
+        <v>5312.0</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>15.0</v>
+        <v>131.0</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>6589.0</v>
+        <v>5333.0</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>8.0</v>
+        <v>33.0</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>6590.0</v>
+        <v>5334.0</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>10.0</v>
+        <v>153.0</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>10.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>5347.0</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>6047.0</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>6065.0</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>6066.0</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>6434.0</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>6451.0</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>6545.0</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>6568.0</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>6571.0</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="18.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.2109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.61328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.7109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.48828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="31.48828125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="4.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.51953125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.609375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.91015625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="1.015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="1.015625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="1.015625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="1.015625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="1.015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="49" t="n">
+        <v>2220.0</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="96" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ReportTest.xlsx
+++ b/ReportTest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Part Number</t>
   </si>
@@ -21,15 +21,12 @@
     <t>Qty In Stock</t>
   </si>
   <si>
+    <t>10 x 220B FORMULATED 6-22-16</t>
+  </si>
+  <si>
     <t>10 x 160A110V</t>
   </si>
   <si>
-    <t>10 x 185A 110V FORMULATED 1-4-2017</t>
-  </si>
-  <si>
-    <t>9 x 210A FORMULATED 6-22-16</t>
-  </si>
-  <si>
     <t>Total Qty Needed</t>
   </si>
   <si>
@@ -51,34 +48,16 @@
     <t/>
   </si>
   <si>
-    <t>Te10A</t>
-  </si>
-  <si>
-    <t>POWER SCR</t>
+    <t xml:space="preserve">3216E </t>
+  </si>
+  <si>
+    <t>TEMPERATURE CONTROLLER</t>
   </si>
   <si>
     <t>NICK HUMENY</t>
   </si>
   <si>
-    <t>TE10A</t>
-  </si>
-  <si>
-    <t>POWER CONTROL</t>
-  </si>
-  <si>
-    <t>EUROTHERM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3216E </t>
-  </si>
-  <si>
-    <t>TEMPERATURE CONTROLLER</t>
-  </si>
-  <si>
     <t>185-A SIDE PANEL</t>
-  </si>
-  <si>
-    <t>SHEET METAL</t>
   </si>
 </sst>
 </file>
@@ -194,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -205,11 +184,10 @@
   <cols>
     <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.78515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.91015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="60.62890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="48.5625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="28.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.91015625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="28.07421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="34.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -231,338 +209,293 @@
       <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>5200.0</v>
+        <v>5001.0</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>183.0</v>
+        <v>22.0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G2" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>5202.0</v>
+        <v>5003.0</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>177.0</v>
+        <v>20.0</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>10.0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>5312.0</v>
+        <v>5006.0</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>131.0</v>
+        <v>11.0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>18.0</v>
+      <c r="E4" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>5316.0</v>
+        <v>5009.0</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>44.0</v>
+        <v>7.0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>18.0</v>
+      <c r="E5" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>5317.0</v>
+        <v>5014.0</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.0</v>
+      <c r="E6" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>5322.0</v>
+        <v>5018.0</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>112.0</v>
+        <v>19.0</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>9.0</v>
+      <c r="E7" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>5333.0</v>
+        <v>5019.0</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>9.0</v>
+      <c r="E8" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>5334.0</v>
+        <v>5021.0</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>153.0</v>
+        <v>10.0</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>9.0</v>
+      <c r="E9" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>5349.0</v>
+        <v>5022.0</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>10.0</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>5352.0</v>
+        <v>5028.0</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>10.0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>6244.0</v>
+        <v>5029.0</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>105.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>10.0</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>6245.0</v>
+        <v>5067.0</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>70.0</v>
+        <v>14.0</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>10.0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>6306.0</v>
+        <v>5071.0</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>223.0</v>
+        <v>140.0</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>6307.0</v>
+        <v>5200.0</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>117.0</v>
+        <v>183.0</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10.0</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>19.0</v>
+      <c r="E15" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>6308.0</v>
+        <v>5202.0</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>43.0</v>
+        <v>177.0</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.0</v>
@@ -570,244 +503,491 @@
       <c r="D16" s="4" t="n">
         <v>10.0</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>19.0</v>
+      <c r="E16" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>6431.0</v>
+        <v>5300.0</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>119.0</v>
+        <v>233.0</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>6434.0</v>
+        <v>5302.0</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>15.0</v>
+        <v>131.0</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>20.0</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>6466.0</v>
+        <v>5303.0</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>74.0</v>
+        <v>51.0</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>10.0</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>47.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>6543.0</v>
+        <v>5304.0</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>160.0</v>
+        <v>0.0</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>6546.0</v>
+        <v>5312.0</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>27.0</v>
+        <v>131.0</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v>10.0</v>
+      <c r="E21" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>6571.0</v>
+        <v>5333.0</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>48.0</v>
+        <v>33.0</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v>9.0</v>
+      <c r="E22" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>6573.0</v>
+        <v>5334.0</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>15.0</v>
+        <v>153.0</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G23" s="4" t="n">
-        <v>9.0</v>
+      <c r="E23" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>6588.0</v>
+        <v>5347.0</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>46.0</v>
+        <v>18.0</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G24" s="4" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>6589.0</v>
+        <v>5349.0</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>6590.0</v>
+        <v>5352.0</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>6047.0</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>6065.0</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>6066.0</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>6244.0</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>6245.0</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>6431.0</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>6434.0</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>6451.0</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>6466.0</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>6545.0</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>6546.0</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>6568.0</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>6571.0</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>6588.0</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -825,14 +1005,13 @@
   <cols>
     <col min="1" max="1" width="18.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.5859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.2578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="53.890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="43.16796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="24.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.18359375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="25.70703125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="17.14453125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="17.14453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="44.64453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.2578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.953125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="21.18359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="26.8828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -852,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s" s="5">
         <v>7</v>
@@ -863,136 +1042,237 @@
       <c r="I1" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="J1" t="s" s="5">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="n">
-        <v>5349.0</v>
-      </c>
-      <c r="B2" s="8" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G2" s="8" t="n">
+      <c r="A2" t="n" s="8">
+        <v>5009.0</v>
+      </c>
+      <c r="B2" t="n" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="C2" t="n" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="D2" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F2" t="n" s="8">
         <v>3.0</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
+      <c r="G2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n">
+      <c r="A3" t="n" s="8">
+        <v>5014.0</v>
+      </c>
+      <c r="B3" t="n" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C3" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="D3" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F3" t="n" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="G3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="8">
+        <v>5018.0</v>
+      </c>
+      <c r="B4" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="C4" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="D4" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F4" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="8">
+        <v>5022.0</v>
+      </c>
+      <c r="B5" t="n" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="C5" t="n" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="D5" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F5" t="n" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="8">
+        <v>5304.0</v>
+      </c>
+      <c r="B6" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="n" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="8">
+        <v>5347.0</v>
+      </c>
+      <c r="B7" t="n" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="C7" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="D7" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="F7" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="8">
         <v>5352.0</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B8" t="n" s="8">
         <v>4.0</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G3" s="8" t="n">
+      <c r="C8" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="E8" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F8" t="n" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="G8" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="8">
+        <v>6434.0</v>
+      </c>
+      <c r="B9" t="n" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="C9" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="D9" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="E9" t="n" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="F9" t="n" s="8">
         <v>25.0</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="n">
-        <v>6434.0</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="n">
-        <v>6589.0</v>
-      </c>
-      <c r="B5" s="8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>21</v>
+      <c r="G9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s" s="8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
